--- a/TestData/TestDataLogin.xlsx
+++ b/TestData/TestDataLogin.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\Automation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="5740"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="TestCredentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -31,27 +35,15 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>avinash2@yopmail.com</t>
-  </si>
-  <si>
     <t>avinash1@yopmail.com</t>
   </si>
   <si>
     <t>Test@123</t>
   </si>
   <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Test4@yopmail.com</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>InValid</t>
-  </si>
-  <si>
     <t>Sourav1@yopmail.com</t>
   </si>
   <si>
@@ -59,6 +51,12 @@
   </si>
   <si>
     <t>Test2@yopmail.com</t>
+  </si>
+  <si>
+    <t>DigVijay23@Yopmail.com</t>
+  </si>
+  <si>
+    <t>avi07monu@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -397,7 +395,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,71 +418,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestDataLogin.xlsx
+++ b/TestData/TestDataLogin.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\Automation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="5740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="5740"/>
   </bookViews>
   <sheets>
     <sheet name="TestCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,4 +480,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>